--- a/Profils/DataPDI-80_EnR_sem_hiver.xlsx
+++ b/Profils/DataPDI-80_EnR_sem_hiver.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00e1b8bdc4a14852/G3 ECLille/PDI/Ressources/Fluctuations réseaux/Données Profils de charges/Saison hiver/V7 Données hiver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{DEDE3352-9592-4697-B53D-A0633DF27766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F781D7-97A0-4748-924A-D3776AD01F52}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4D9D64A577C15A4A5418F960984C305BDEDD87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A5FFC5B-3964-454B-AED3-1001DA1DFCD7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DonnéesPDI-90%EnR-Pic3" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -42,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,135 +53,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,179 +63,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -367,205 +76,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,7 +101,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -597,7 +117,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -609,7 +129,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -626,7 +146,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -656,29 +176,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -708,23 +211,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -869,7 +355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -877,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A338"/>
+  <dimension ref="A1:A385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -895,92 +381,92 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>92.242424242424264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>88.603030303030366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>85.003030303030357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>80.812121212121269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>77.07424242424247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>73.357440160358507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>71.749823134064414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>69.6497818653461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>67.049652163659971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>65.221153165900276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>64.600760523523178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>66.216188575934453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>63.78285211060016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>55.663998201862995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>40.513541666666661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>20.741761363636357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1065,157 +551,157 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>0</v>
+        <v>51.292277660628692</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>0</v>
+        <v>62.671961292801171</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>18.454498106060598</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>52.77395833333334</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>76.720991161616169</v>
+        <v>63.121866991482221</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>91.772380050505063</v>
+        <v>64.812821923310295</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>95</v>
+        <v>6.2476204197281486</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>95</v>
+        <v>1.5069874657820038E-2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>91.195454545454552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>87.411616161616195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>83.824747474747497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>81.399999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>76.125757575757603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>69.807575757575762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>64.848484848484901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>59.377272727272768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>56.013636363636429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>51.921212121212164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>47.434848484848537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43.716666666666711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>37.733333333333377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>32.853030303030316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>28.74090909090911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>37.354119318181816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>36.591335227272722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>30.733096590909064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>23.16874999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>11.220928030302998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -1305,177 +791,177 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>0</v>
+        <v>49.648320782035363</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>0</v>
+        <v>63.129518786843541</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>28.164299242424239</v>
+        <v>94.376767822294383</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>52.252051767676747</v>
+        <v>51.686090555460972</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>68.496101641414128</v>
+        <v>29.517321755226909</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>75.691051136363669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>76.002856691919206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>74.809595959595995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>74.177272727272765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>70.984343434343472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>71.514141414141449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>74.781818181818167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>73.801515151515162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>69.965151515151533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>66.325757575757621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>63.040909090909139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>60.878787878787932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>59.878787878787932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>59.23333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>60.675757575757629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>57.292424242424268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>52.313636363636398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>51.215151515151533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>50.987263257575741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>56.775426136363627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>57.450047348484858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>53.864393939393928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>49.795501893939395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>42.767140151515136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>31.484232954545437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>20.222632575757558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>9.032102272727256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -1555,152 +1041,152 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>0</v>
+        <v>15.951299917486326</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>23.037973484848493</v>
+        <v>21.432899263489144</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>48.063352272727315</v>
+        <v>24.795125582288843</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>72.727840909090901</v>
+        <v>25.278234295119528</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>91.844854797979806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>93.439393939393938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>89.386363636363669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>84.584848484848521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>79.330303030303071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>74.213636363636425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>69.274242424242473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>64.650000000000048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>59.474242424242462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>52.821212121212156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>47.231818181818213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>40.145454545454562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>32.780965909090902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>30.409848484848485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>26.783380681818176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>20.263541666666672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>13.883664772727258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>7.1301609848484757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
@@ -1795,187 +1281,187 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>0</v>
+        <v>26.72536749136659</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>0</v>
+        <v>63.718728089132171</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>0</v>
+        <v>41.912517190344559</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>0</v>
+        <v>56.760255050141176</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>0</v>
+        <v>16.360586414497895</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>11.265135732323248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>29.372064393939418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>36.498121843434369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>41.59444444444447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>48.153030303030334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>52.170707070707103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>56.936868686868728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>57.783333333333346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>53.927272727272737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>46.210606060606096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>49.287878787878832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>43.068181818181863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>38.975757575757633</v>
+        <v>0.21325180529729548</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>40.398484848484912</v>
+        <v>15.016588720116934</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>45.977272727272776</v>
+        <v>18.701788179756395</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>49.113636363636395</v>
+        <v>23.285223106316881</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>52.604545454545494</v>
+        <v>12.631133587572435</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>53.613636363636395</v>
+        <v>20.424159548753515</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>51.175757575757594</v>
+        <v>25.784552582014076</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>42.384422348484861</v>
+        <v>20.766263015164458</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>45.579687499999999</v>
+        <v>40.088072017926692</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>53.293276515151518</v>
+        <v>76.92785818129434</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>55.918560606060595</v>
+        <v>95</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>52.78499053030302</v>
+        <v>95</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>45.364393939393921</v>
+        <v>95</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>36.110369318181817</v>
+        <v>95</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>29.732291666666637</v>
+        <v>95</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>19.525710227272732</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>11.094412878787857</v>
+        <v>84.128408436038796</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>6.4570075757575562</v>
+        <v>58.24603601568198</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>2.2089015151514966</v>
+        <v>44.335575991146129</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>0</v>
+        <v>16.396124150305813</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
@@ -2010,187 +1496,187 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>0</v>
+        <v>1.9913496079551889</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>0</v>
+        <v>24.150636856666143</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>0</v>
+        <v>82.133093098506507</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>9.2702651515151544</v>
+        <v>95</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>21.210037878787873</v>
+        <v>95</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>23.665246212121197</v>
+        <v>95</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>23.341777146464644</v>
+        <v>95</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>15.23511679292927</v>
+        <v>95</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>18.263731060606073</v>
+        <v>95</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>19.151388888888903</v>
+        <v>95</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>10.926262626262636</v>
+        <v>95</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>13.781818181818203</v>
+        <v>95</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>20.005555555555578</v>
+        <v>95</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>25.598989898989927</v>
+        <v>91.340682724085624</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>35.146969696969713</v>
+        <v>86.509737484337663</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>34.954545454545475</v>
+        <v>68.660330141932207</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>35.865151515151517</v>
+        <v>75.760636072520583</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>36.401515151515198</v>
+        <v>81.769743853651747</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>39.537878787878832</v>
+        <v>95</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>41.728787878787934</v>
+        <v>86.779482433686837</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>46.263636363636429</v>
+        <v>95</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>46.859090909090988</v>
+        <v>84.873200281021667</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>47.395454545454626</v>
+        <v>85.120253572903508</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>48.207575757575832</v>
+        <v>93.590783287866955</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>48.822727272727356</v>
+        <v>73.411078273033553</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>51.604545454545523</v>
+        <v>80.855813327556163</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>58.657575757575763</v>
+        <v>59.754251805959754</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>65.305208333333368</v>
+        <v>62.37438802373245</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>67.037784090909128</v>
+        <v>63.449968347936881</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>65.037168560606091</v>
+        <v>60.496481163748058</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>56.766240530303072</v>
+        <v>89.412857886602623</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>45.268750000000033</v>
+        <v>45.643953582795291</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>32.182812500000075</v>
+        <v>46.423016943676686</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>13.27566287878795</v>
+        <v>10.036066816413667</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
@@ -2265,167 +1751,167 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>0</v>
+        <v>21.836708643850962</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>0</v>
+        <v>28.470292465062595</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>0</v>
+        <v>78.728406253137791</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>14.682149621212096</v>
+        <v>95</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>41.10085227272728</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>71.422206439393946</v>
+        <v>95</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>87.618292297979792</v>
+        <v>95</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>94.427114898989899</v>
+        <v>95</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>93.332481060606028</v>
+        <v>95</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>83.336190025252506</v>
+        <v>95</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>66.530808080808015</v>
+        <v>95</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>50.640909090909048</v>
+        <v>95</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>36.346464646464597</v>
+        <v>95</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>25.459595959595894</v>
+        <v>75.903949304309464</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>16.680303030303026</v>
+        <v>79.226536216508833</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>8.0181818181818159</v>
+        <v>60.125901865507018</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>0.55757575757578248</v>
+        <v>73.342767377458287</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>0</v>
+        <v>61.7481242876162</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>0</v>
+        <v>77.705173116697154</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>0</v>
+        <v>76.446616390636734</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>0</v>
+        <v>68.258582961641324</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>0</v>
+        <v>64.009890426698703</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>0</v>
+        <v>79.351980112804526</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>0</v>
+        <v>75.662526639672365</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>0</v>
+        <v>82.314346247256154</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>0</v>
+        <v>82.765347110716533</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>0</v>
+        <v>70.559928342073476</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>0</v>
+        <v>70.092755825071137</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>0</v>
+        <v>87.893824846214628</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>0</v>
+        <v>66.158468836906778</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>0</v>
+        <v>71.874191071498643</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
@@ -2505,76 +1991,311 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>0</v>
+        <v>20.262257315992429</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>0</v>
+        <v>18.877912917534374</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>0</v>
+        <v>88.011244886554636</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>0</v>
+        <v>70.39647243214462</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>0</v>
+        <v>51.979538360117502</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>0</v>
+        <v>40.982189711551456</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
+        <v>33.025712826289087</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>25.053784838440119</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>28.651022673783139</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>27.859983585604493</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>30.841462767159715</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>23.190518458669494</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>22.574559222619513</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>19.547465985859741</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>24.780569496251484</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>17.299626875135253</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>1.0355339284719527</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>5.7138967837138388</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>22.757185345749647</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
         <v>0</v>
       </c>
     </row>
